--- a/locations.xlsx
+++ b/locations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:K96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +426,7 @@
     <col min="9" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -488,10 +488,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K9">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L9">
+        <f>K9*-1</f>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>2</v>
       </c>
@@ -517,10 +521,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K10">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L73" si="0">K10*-1</f>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>3</v>
       </c>
@@ -546,10 +554,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K11">
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
         <v>4.9999999999999975E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>4</v>
       </c>
@@ -575,10 +587,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -604,10 +620,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K13">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>6</v>
       </c>
@@ -633,10 +653,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>7</v>
       </c>
@@ -662,10 +686,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K15">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>8</v>
       </c>
@@ -691,10 +719,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K16">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>9</v>
       </c>
@@ -720,10 +752,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K17">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>10</v>
       </c>
@@ -749,10 +785,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K18">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>11</v>
       </c>
@@ -778,10 +818,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K19">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>12</v>
       </c>
@@ -809,8 +853,12 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>13</v>
       </c>
@@ -836,10 +884,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K21">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>14</v>
       </c>
@@ -865,10 +917,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K22">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>15</v>
       </c>
@@ -894,10 +950,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K23">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>16</v>
       </c>
@@ -923,10 +983,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>17</v>
       </c>
@@ -952,10 +1016,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K25">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>18</v>
       </c>
@@ -981,10 +1049,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K26">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>19</v>
       </c>
@@ -1010,10 +1082,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K27">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>20</v>
       </c>
@@ -1039,10 +1115,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K28">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>21</v>
       </c>
@@ -1070,8 +1150,12 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>22</v>
       </c>
@@ -1097,10 +1181,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K30">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>23</v>
       </c>
@@ -1126,10 +1214,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K31">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>24</v>
       </c>
@@ -1155,10 +1247,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K32">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>25</v>
       </c>
@@ -1184,10 +1280,14 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K33">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>26</v>
       </c>
@@ -1213,10 +1313,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K34">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>27</v>
       </c>
@@ -1242,10 +1346,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K35">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>28</v>
       </c>
@@ -1271,10 +1379,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K36">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>29</v>
       </c>
@@ -1300,10 +1412,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K37">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>30</v>
       </c>
@@ -1331,8 +1447,12 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>31</v>
       </c>
@@ -1358,10 +1478,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K39">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>32</v>
       </c>
@@ -1387,10 +1511,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K40">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>33</v>
       </c>
@@ -1416,10 +1544,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K41">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>34</v>
       </c>
@@ -1445,10 +1577,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K42">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>35</v>
       </c>
@@ -1474,10 +1610,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K43">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>36</v>
       </c>
@@ -1503,10 +1643,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K44">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>37</v>
       </c>
@@ -1532,10 +1676,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K45">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>38</v>
       </c>
@@ -1561,10 +1709,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K46">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>39</v>
       </c>
@@ -1592,8 +1744,12 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>40</v>
       </c>
@@ -1619,10 +1775,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K48">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>41</v>
       </c>
@@ -1648,10 +1808,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K49">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>42</v>
       </c>
@@ -1677,10 +1841,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K50">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>43</v>
       </c>
@@ -1706,10 +1874,14 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K51">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>44</v>
       </c>
@@ -1735,10 +1907,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K52">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>45</v>
       </c>
@@ -1764,10 +1940,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K53">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>46</v>
       </c>
@@ -1793,10 +1973,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K54">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>47</v>
       </c>
@@ -1822,10 +2006,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K55">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>48</v>
       </c>
@@ -1853,8 +2041,12 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>49</v>
       </c>
@@ -1880,10 +2072,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K57">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>50</v>
       </c>
@@ -1909,10 +2105,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K58">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>51</v>
       </c>
@@ -1938,10 +2138,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K59">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>52</v>
       </c>
@@ -1967,10 +2171,14 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K60">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
         <v>53</v>
       </c>
@@ -1996,10 +2204,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K61">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>54</v>
       </c>
@@ -2025,10 +2237,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K62">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>55</v>
       </c>
@@ -2054,10 +2270,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K63">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
         <v>56</v>
       </c>
@@ -2083,10 +2303,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K64">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
         <v>57</v>
       </c>
@@ -2114,8 +2338,12 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
         <v>58</v>
       </c>
@@ -2141,10 +2369,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K66">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>59</v>
       </c>
@@ -2170,10 +2402,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K67">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <v>60</v>
       </c>
@@ -2199,10 +2435,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K68">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>61</v>
       </c>
@@ -2228,10 +2468,14 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K69">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>62</v>
       </c>
@@ -2257,10 +2501,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K70">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>63</v>
       </c>
@@ -2286,10 +2534,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K71">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
         <v>64</v>
       </c>
@@ -2315,10 +2567,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K72">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>65</v>
       </c>
@@ -2344,10 +2600,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K73">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>66</v>
       </c>
@@ -2375,8 +2635,12 @@
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" ref="L74:L96" si="1">K74*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>67</v>
       </c>
@@ -2402,10 +2666,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K75">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
         <v>68</v>
       </c>
@@ -2431,10 +2699,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K76">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
         <v>69</v>
       </c>
@@ -2460,10 +2732,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K77">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <v>70</v>
       </c>
@@ -2489,10 +2765,14 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K78">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
         <v>71</v>
       </c>
@@ -2518,10 +2798,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K79">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="1">
         <v>72</v>
       </c>
@@ -2547,10 +2831,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K80">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
         <v>73</v>
       </c>
@@ -2576,10 +2864,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K81">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82" s="1">
         <v>74</v>
       </c>
@@ -2605,10 +2897,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K82">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
         <v>75</v>
       </c>
@@ -2636,8 +2932,12 @@
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
         <v>76</v>
       </c>
@@ -2663,10 +2963,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K84">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
         <v>77</v>
       </c>
@@ -2692,10 +2996,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K85">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
         <v>78</v>
       </c>
@@ -2721,10 +3029,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K86">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
         <v>79</v>
       </c>
@@ -2750,10 +3062,14 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K87">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
         <v>80</v>
       </c>
@@ -2779,10 +3095,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K88">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
         <v>-4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89" s="1">
         <v>81</v>
       </c>
@@ -2808,10 +3128,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K89">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90" s="1">
         <v>82</v>
       </c>
@@ -2837,10 +3161,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K90">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91" s="1">
         <v>83</v>
       </c>
@@ -2866,10 +3194,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K91">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C92" s="1">
         <v>84</v>
       </c>
@@ -2897,8 +3229,12 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C93" s="1">
         <v>85</v>
       </c>
@@ -2924,10 +3260,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K93">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94" s="1">
         <v>86</v>
       </c>
@@ -2953,10 +3293,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K94">
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95" s="1">
         <v>87</v>
       </c>
@@ -2982,10 +3326,14 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K95">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
         <v>88</v>
       </c>
@@ -3011,6 +3359,10 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K96">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Number</t>
   </si>
@@ -46,6 +46,12 @@
   <si>
     <t>adjusted x-0.07 and y-0.04</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
@@ -60,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -89,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,6 +110,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,7 +432,7 @@
   <dimension ref="C7:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +476,12 @@
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
@@ -488,11 +509,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K9">
-        <v>4.5000000000000005E-2</v>
+        <v>-4.5000000000000005E-2</v>
       </c>
       <c r="L9">
         <f>K9*-1</f>
-        <v>-4.5000000000000005E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
@@ -521,11 +542,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K10">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L73" si="0">K10*-1</f>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
@@ -554,11 +575,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K11">
+        <v>4.9999999999999975E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
         <v>-4.9999999999999975E-3</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999975E-3</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
@@ -587,11 +608,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
         <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
@@ -620,11 +641,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K13">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
@@ -653,11 +674,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K14">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
@@ -686,11 +707,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
@@ -719,11 +740,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K16">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -752,11 +773,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K17">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
@@ -785,11 +806,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K18">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
@@ -818,11 +839,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K19">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
@@ -884,11 +905,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K21">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
         <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
@@ -917,11 +938,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K22">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
@@ -950,11 +971,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K23">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
@@ -983,11 +1004,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
@@ -1016,11 +1037,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K25">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
@@ -1049,11 +1070,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K26">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
@@ -1082,11 +1103,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K27">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
@@ -1115,11 +1136,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K28">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
@@ -1181,11 +1202,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K30">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
         <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
@@ -1214,11 +1235,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K31">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
@@ -1247,11 +1268,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K32">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
@@ -1280,11 +1301,11 @@
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="K33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
@@ -1313,11 +1334,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K34">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
@@ -1346,11 +1367,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K35">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
@@ -1379,11 +1400,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K36">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
@@ -1412,11 +1433,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K37">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
@@ -1478,11 +1499,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K39">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
         <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
@@ -1511,11 +1532,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K40">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
@@ -1544,11 +1565,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K41">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
@@ -1577,11 +1598,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K42">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
@@ -1610,11 +1631,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K43">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
@@ -1643,11 +1664,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K44">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
@@ -1676,11 +1697,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K45">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
@@ -1709,11 +1730,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K46">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
@@ -1775,11 +1796,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K48">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
         <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
@@ -1808,11 +1829,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K49">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -1841,11 +1862,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K50">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
@@ -1874,11 +1895,11 @@
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="K51">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
@@ -1907,11 +1928,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K52">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
@@ -1940,11 +1961,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K53">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
@@ -1973,11 +1994,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K54">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
@@ -2006,11 +2027,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K55">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
@@ -2072,11 +2093,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K57">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
         <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
@@ -2105,11 +2126,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K58">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
@@ -2138,11 +2159,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K59">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
@@ -2171,11 +2192,11 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="K60">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
@@ -2204,11 +2225,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K61">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
@@ -2237,11 +2258,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K62">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
@@ -2270,11 +2291,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K63">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
@@ -2303,11 +2324,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K64">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
@@ -2369,11 +2390,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K66">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
         <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
       </c>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
@@ -2402,11 +2423,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K67">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
         <v>-2.4999999999999994E-2</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
@@ -2435,11 +2456,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K68">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L68">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
@@ -2468,11 +2489,11 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K69">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
@@ -2501,11 +2522,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K70">
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
@@ -2534,11 +2555,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K71">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L71">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
@@ -2567,11 +2588,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K72">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
@@ -2600,11 +2621,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K73">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
@@ -2666,11 +2687,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K75">
-        <v>-9.999999999999995E-3</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
+        <v>-9.999999999999995E-3</v>
       </c>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
@@ -2699,11 +2720,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K76">
-        <v>-2.4999999999999994E-2</v>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>2.4999999999999994E-2</v>
+        <v>-2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
@@ -2732,11 +2753,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K77">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
@@ -2765,11 +2786,11 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K78">
-        <v>-4.4999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="L78">
         <f t="shared" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
@@ -2798,11 +2819,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K79">
-        <v>4.5000000000000005E-2</v>
+        <v>-4.5000000000000005E-2</v>
       </c>
       <c r="L79">
         <f t="shared" si="1"/>
-        <v>-4.5000000000000005E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
@@ -2831,11 +2852,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K80">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L80">
         <f t="shared" si="1"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.25">
@@ -2864,11 +2885,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K81">
-        <v>2.0000000000000004E-2</v>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="L81">
         <f t="shared" si="1"/>
-        <v>-2.0000000000000004E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.25">
@@ -2897,11 +2918,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K82">
-        <v>1.0000000000000002E-2</v>
+        <v>-1.0000000000000002E-2</v>
       </c>
       <c r="L82">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000002E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
@@ -2963,11 +2984,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K84">
-        <v>-9.999999999999995E-3</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="L84">
         <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
+        <v>-9.999999999999995E-3</v>
       </c>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
@@ -2996,11 +3017,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K85">
-        <v>-2.4999999999999994E-2</v>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="L85">
         <f t="shared" si="1"/>
-        <v>2.4999999999999994E-2</v>
+        <v>-2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.25">
@@ -3029,11 +3050,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K86">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L86">
         <f t="shared" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.25">
@@ -3062,11 +3083,11 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K87">
-        <v>-4.4999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="L87">
         <f t="shared" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="88" spans="3:12" x14ac:dyDescent="0.25">
@@ -3095,11 +3116,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K88">
-        <v>4.5000000000000005E-2</v>
+        <v>-4.5000000000000005E-2</v>
       </c>
       <c r="L88">
         <f t="shared" si="1"/>
-        <v>-4.5000000000000005E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.25">
@@ -3128,11 +3149,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K89">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L89">
         <f t="shared" si="1"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="3:12" x14ac:dyDescent="0.25">
@@ -3161,11 +3182,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K90">
-        <v>2.0000000000000004E-2</v>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="L90">
         <f t="shared" si="1"/>
-        <v>-2.0000000000000004E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="91" spans="3:12" x14ac:dyDescent="0.25">
@@ -3194,11 +3215,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K91">
-        <v>1.0000000000000002E-2</v>
+        <v>-1.0000000000000002E-2</v>
       </c>
       <c r="L91">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000002E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="92" spans="3:12" x14ac:dyDescent="0.25">
@@ -3260,11 +3281,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K93">
-        <v>-9.999999999999995E-3</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="L93">
         <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
+        <v>-9.999999999999995E-3</v>
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.25">
@@ -3293,11 +3314,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K94">
-        <v>-2.4999999999999994E-2</v>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="L94">
         <f t="shared" si="1"/>
-        <v>2.4999999999999994E-2</v>
+        <v>-2.4999999999999994E-2</v>
       </c>
     </row>
     <row r="95" spans="3:12" x14ac:dyDescent="0.25">
@@ -3326,11 +3347,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K95">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L95">
         <f t="shared" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="96" spans="3:12" x14ac:dyDescent="0.25">
@@ -3359,11 +3380,11 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="K96">
-        <v>-4.4999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="L96">
         <f t="shared" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
